--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/14298463/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/14298463/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9959425330162048</v>
+        <v>0.9528465867042542</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9959824085235596</v>
+        <v>0.9535502791404724</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9933884143829346</v>
+        <v>0.9419667720794678</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9406726956367493</v>
+        <v>0.7438837289810181</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9961418509483337</v>
+        <v>0.9539639949798584</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9961779117584229</v>
+        <v>0.9539856910705566</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9963083863258362</v>
+        <v>0.9542677402496338</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9961811304092407</v>
+        <v>0.9540679454803467</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9963083863258362</v>
+        <v>0.9542677402496338</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9964069724082947</v>
+        <v>0.9542862176895142</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9964079260826111</v>
+        <v>0.9545082449913025</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9614148736000061</v>
+        <v>0.8679340481758118</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9963303208351135</v>
+        <v>0.9542603492736816</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.995715320110321</v>
+        <v>0.8410755395889282</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9961814880371094</v>
+        <v>0.9537729620933533</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9960447549819946</v>
+        <v>0.9537044763565063</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7603792548179626</v>
+        <v>0.5966894030570984</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.996250331401825</v>
+        <v>0.9535816311836243</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9964003562927246</v>
+        <v>0.9534309506416321</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9962272644042969</v>
+        <v>0.9541121125221252</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9962717294692993</v>
+        <v>0.9541903734207153</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9962798953056335</v>
+        <v>0.9541513919830322</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9963061809539795</v>
+        <v>0.9543150663375854</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9426093697547913</v>
+        <v>0.7437968254089355</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7476351261138916</v>
+        <v>0.6131064891815186</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9962067604064941</v>
+        <v>0.9537596702575684</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9959824085235596</v>
+        <v>0.9535502791404724</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9961332082748413</v>
+        <v>0.9537920951843262</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9960376024246216</v>
+        <v>0.9535605907440186</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9959554672241211</v>
+        <v>0.9534251093864441</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9960951209068298</v>
+        <v>0.9536001682281494</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9855363965034485</v>
+        <v>0.8547200560569763</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9633541107177734</v>
+        <v>0.8611454367637634</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9663741588592529</v>
+        <v>0.8690249919891357</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9962060451507568</v>
+        <v>0.9539234042167664</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9668803811073303</v>
+        <v>0.8697454333305359</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.996334433555603</v>
+        <v>0.9543495178222656</v>
       </c>
     </row>
     <row r="39">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9943324327468872</v>
+        <v>0.4788806438446045</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9846766591072083</v>
+        <v>0.8509523272514343</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9963456988334656</v>
+        <v>0.9539250731468201</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9649010896682739</v>
+        <v>0.828619658946991</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9847351312637329</v>
+        <v>0.8520613312721252</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9661616683006287</v>
+        <v>0.8681620359420776</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9853876233100891</v>
+        <v>0.8534650206565857</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9853781461715698</v>
+        <v>0.8497714996337891</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7539831399917603</v>
+        <v>0.6586925983428955</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.985390305519104</v>
+        <v>0.8499737977981567</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9964564442634583</v>
+        <v>0.9544658064842224</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9843489527702332</v>
+        <v>0.8481872081756592</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9738799929618835</v>
+        <v>0.828873872756958</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9960269927978516</v>
+        <v>0.9532755017280579</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9843489527702332</v>
+        <v>0.8481872081756592</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9836363196372986</v>
+        <v>0.8420953154563904</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9961994290351868</v>
+        <v>0.9539909958839417</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9963383674621582</v>
+        <v>0.9541652798652649</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9963951706886292</v>
+        <v>0.9543512463569641</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9671111702919006</v>
+        <v>0.8682112097740173</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9962943196296692</v>
+        <v>0.9539235234260559</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9960842132568359</v>
+        <v>0.9534942507743835</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9963759779930115</v>
+        <v>0.9539207220077515</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9963261485099792</v>
+        <v>0.9541971683502197</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9643816351890564</v>
+        <v>0.8689455986022949</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8391118049621582</v>
+        <v>0.5471914410591125</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9663317203521729</v>
+        <v>0.8697390556335449</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9663317203521729</v>
+        <v>0.8697390556335449</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9645791053771973</v>
+        <v>0.865373969078064</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9663317203521729</v>
+        <v>0.8697390556335449</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9660230278968811</v>
+        <v>0.8373653292655945</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.996189296245575</v>
+        <v>0.9539236426353455</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9535220265388489</v>
+        <v>0.82352215051651</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9957311749458313</v>
+        <v>0.9527867436408997</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9682047367095947</v>
+        <v>0.8697102069854736</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9963323473930359</v>
+        <v>0.9543536305427551</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9960384368896484</v>
+        <v>0.9534533023834229</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9682047367095947</v>
+        <v>0.8697102069854736</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9959865212440491</v>
+        <v>0.9532681107521057</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9682047367095947</v>
+        <v>0.8697102069854736</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9962253570556641</v>
+        <v>0.9541983604431152</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.969112753868103</v>
+        <v>0.8686202764511108</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9959206581115723</v>
+        <v>0.9533397555351257</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.969112753868103</v>
+        <v>0.8686202764511108</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9958641529083252</v>
+        <v>0.9532344341278076</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9958641529083252</v>
+        <v>0.9532344341278076</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9964359998703003</v>
+        <v>0.9543930292129517</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9693779349327087</v>
+        <v>0.8696401715278625</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9962814450263977</v>
+        <v>0.9539721608161926</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9683544635772705</v>
+        <v>0.8675841093063354</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.995951771736145</v>
+        <v>0.9533690810203552</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9963221549987793</v>
+        <v>0.9542206525802612</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9963042736053467</v>
+        <v>0.9542309641838074</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.996320366859436</v>
+        <v>0.9542218446731567</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9963079690933228</v>
+        <v>0.9541276097297668</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9963060617446899</v>
+        <v>0.9542378783226013</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9963157773017883</v>
+        <v>0.9542292952537537</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9964808821678162</v>
+        <v>0.9544106125831604</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7939597368240356</v>
+        <v>0.4514375925064087</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.996387243270874</v>
+        <v>0.9540804028511047</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8506375551223755</v>
+        <v>0.702789843082428</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9962312579154968</v>
+        <v>0.9541606307029724</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9962950348854065</v>
+        <v>0.9540005326271057</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9065240025520325</v>
+        <v>0.7520609498023987</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9912329316139221</v>
+        <v>0.73177570104599</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9960951209068298</v>
+        <v>0.9535824060440063</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9669744968414307</v>
+        <v>0.8364242911338806</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9962144494056702</v>
+        <v>0.954090416431427</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9844523668289185</v>
+        <v>0.8534027934074402</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9407052993774414</v>
+        <v>0.7469033598899841</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9962629675865173</v>
+        <v>0.9538211226463318</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9959824085235596</v>
+        <v>0.9535502791404724</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9852434396743774</v>
+        <v>0.853255569934845</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9845917820930481</v>
+        <v>0.8513082265853882</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9612129330635071</v>
+        <v>0.8664601445198059</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9963663816452026</v>
+        <v>0.954169750213623</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9687588810920715</v>
+        <v>0.8623159527778625</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9956017732620239</v>
+        <v>0.948982298374176</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9960642457008362</v>
+        <v>0.9537838101387024</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9298577904701233</v>
+        <v>0.7532216310501099</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.78220134973526</v>
+        <v>0.3841737806797028</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9959824085235596</v>
+        <v>0.9535502791404724</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9677329063415527</v>
+        <v>0.8306698203086853</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9964312314987183</v>
+        <v>0.9544878602027893</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9677329063415527</v>
+        <v>0.8306698203086853</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9964312314987183</v>
+        <v>0.9544878602027893</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9677329063415527</v>
+        <v>0.8306698203086853</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9963220357894897</v>
+        <v>0.954140841960907</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8195464015007019</v>
+        <v>0.7580264806747437</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9959824085235596</v>
+        <v>0.9535502791404724</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8857555985450745</v>
+        <v>0.4663386642932892</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7331640124320984</v>
+        <v>0.6276050209999084</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.99607914686203</v>
+        <v>0.9538933634757996</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5835584998130798</v>
+        <v>0.6368976831436157</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9961872696876526</v>
+        <v>0.9538360834121704</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9963536262512207</v>
+        <v>0.9539231061935425</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9962377548217773</v>
+        <v>0.9538035988807678</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9957529306411743</v>
+        <v>0.9454243779182434</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9961137771606445</v>
+        <v>0.9539163708686829</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9961045980453491</v>
+        <v>0.9537671208381653</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9960976839065552</v>
+        <v>0.953793466091156</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9959390163421631</v>
+        <v>0.9534426927566528</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.7361918091773987</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9959824085235596</v>
+        <v>0.9535502791404724</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9700493216514587</v>
+        <v>0.8691424131393433</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9963085055351257</v>
+        <v>0.9543549418449402</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9700493216514587</v>
+        <v>0.8691424131393433</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9959356784820557</v>
+        <v>0.9535974264144897</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9660230278968811</v>
+        <v>0.8373653292655945</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9962592124938965</v>
+        <v>0.9541056156158447</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9631169438362122</v>
+        <v>0.8692611455917358</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7001962661743164</v>
+        <v>0.4019740223884583</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9959824085235596</v>
+        <v>0.9535502791404724</v>
       </c>
     </row>
     <row r="152">
@@ -4683,14 +4683,14 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9726081490516663</v>
+        <v>0.7224352359771729</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9964380264282227</v>
+        <v>0.9544758796691895</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9468142986297607</v>
+        <v>0.7575493454933167</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9963114857673645</v>
+        <v>0.9543769359588623</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9454532861709595</v>
+        <v>0.7539964914321899</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9963434338569641</v>
+        <v>0.9544175863265991</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9444068670272827</v>
+        <v>0.7530921697616577</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.996362030506134</v>
+        <v>0.954387903213501</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8768953680992126</v>
+        <v>0.8029543161392212</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9961866736412048</v>
+        <v>0.9538881778717041</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9930468201637268</v>
+        <v>0.8431453108787537</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9960708618164062</v>
+        <v>0.9537153840065002</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9622933864593506</v>
+        <v>0.8672410845756531</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9963675737380981</v>
+        <v>0.9543421268463135</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.895287811756134</v>
+        <v>0.8395798206329346</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9842398166656494</v>
+        <v>0.8471980690956116</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.95717453956604</v>
+        <v>0.8638965487480164</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9959824085235596</v>
+        <v>0.9535502791404724</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9842398166656494</v>
+        <v>0.8471980690956116</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9560981392860413</v>
+        <v>0.858709454536438</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9959824085235596</v>
+        <v>0.9535502791404724</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9960862398147583</v>
+        <v>0.9539491534233093</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.99611496925354</v>
+        <v>0.9538658261299133</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9960862398147583</v>
+        <v>0.9539491534233093</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9960862398147583</v>
+        <v>0.9539491534233093</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.99611496925354</v>
+        <v>0.9538658261299133</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.99623042345047</v>
+        <v>0.954206109046936</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.99574214220047</v>
+        <v>0.9530375599861145</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9960933327674866</v>
+        <v>0.9538677930831909</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9961776733398438</v>
+        <v>0.9539420008659363</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9962026476860046</v>
+        <v>0.9539072513580322</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9669767022132874</v>
+        <v>0.8394982218742371</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9963564872741699</v>
+        <v>0.9543765187263489</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9963532686233521</v>
+        <v>0.9544576406478882</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9963909983634949</v>
+        <v>0.9544842839241028</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9963462948799133</v>
+        <v>0.9542903304100037</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9962562322616577</v>
+        <v>0.9540829062461853</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9962732791900635</v>
+        <v>0.9541383385658264</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9962791800498962</v>
+        <v>0.9541323781013489</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8178860545158386</v>
+        <v>0.4491158425807953</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9961317777633667</v>
+        <v>0.9540702104568481</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9960924983024597</v>
+        <v>0.9538388252258301</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9682212471961975</v>
+        <v>0.820673942565918</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9843571782112122</v>
+        <v>0.8524339199066162</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9963850975036621</v>
+        <v>0.9543091058731079</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9963380098342896</v>
+        <v>0.9543268084526062</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.996374785900116</v>
+        <v>0.9543898701667786</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9962066411972046</v>
+        <v>0.9538372159004211</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4851309657096863</v>
+        <v>0.3894465267658234</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9961989521980286</v>
+        <v>0.9541323184967041</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9962193369865417</v>
+        <v>0.9542757868766785</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9961041212081909</v>
+        <v>0.9537782073020935</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9840770363807678</v>
+        <v>0.8450597524642944</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9964244961738586</v>
+        <v>0.9544036984443665</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9961168766021729</v>
+        <v>0.9538218975067139</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7887711524963379</v>
+        <v>0.4626292288303375</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9957820177078247</v>
+        <v>0.9526672959327698</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.3743637800216675</v>
+        <v>0.604099452495575</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9961372017860413</v>
+        <v>0.9539510011672974</v>
       </c>
     </row>
   </sheetData>
